--- a/Kocsi.xlsx
+++ b/Kocsi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13d\Desktop\SK\KK\Projekt Alap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEECC018-0ED5-448E-9616-E56B0782B9A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6134B1A6-704D-4B17-AFBE-6D0F04FD6AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2165,7 +2165,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2538,7 +2540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12580,14 +12584,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DE8346-7FD1-4D66-9AAA-CD1777FD5305}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
